--- a/GenericScenarioEvaluation/Reviewed Scenarios/ST/Granular detergents manufacture.xlsx
+++ b/GenericScenarioEvaluation/Reviewed Scenarios/ST/Granular detergents manufacture.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/takkellapati_sudhakar_epa_gov/Documents/Profile/Desktop/Bill paper docs/Scenario Reviews_ST/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WBARRETT\Environmental Protection Agency (EPA)\CSS RA-2 Project Team - General\Bill Paper - Generic Scenario Review\Reviewed Scenarios\ST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="299" documentId="8_{DB9DE30B-946F-4DF4-9AA1-46EC30346089}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{ECF7DCC8-4CEA-42A7-B7A2-8D75C2E654E8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F7C7D6-ADC2-4E63-8414-056332487D14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{AEE7231D-D110-46BA-BB08-35ECB9C6F51B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AEE7231D-D110-46BA-BB08-35ECB9C6F51B}"/>
   </bookViews>
   <sheets>
     <sheet name="General Info" sheetId="1" r:id="rId1"/>
@@ -1575,10 +1575,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBE2C11F-6A25-4CA6-B493-2A0028270B50}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1663,162 +1663,162 @@
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
     </row>
-    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>268</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D5" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H6" s="7" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>230</v>
-      </c>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D7" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D8" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E8" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F8" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H8" s="7" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C8" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>231</v>
-      </c>
+    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D9" t="s">
+        <v>200</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>232</v>
+      </c>
+      <c r="C10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D10" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E10" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F10" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H10" s="7" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="C10" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-    </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>232</v>
-      </c>
-      <c r="C11" t="s">
-        <v>201</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C11" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C12" t="s">
+        <v>203</v>
+      </c>
+      <c r="D12" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E12" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F12" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H12" s="7" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C12" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C13" t="s">
-        <v>203</v>
-      </c>
-      <c r="D13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C14" s="1" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
         <v>204</v>
       </c>
     </row>
@@ -1832,25 +1832,25 @@
           <x14:formula1>
             <xm:f>EntryData!$D$2:$D$24</xm:f>
           </x14:formula1>
-          <xm:sqref>B1 B5:B1048576</xm:sqref>
+          <xm:sqref>B1 B4:B1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A5DCB4A0-5486-4618-BCFD-C86E20ECCFC2}">
           <x14:formula1>
             <xm:f>EntryData!$K$2:$K$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D1 D5:D1048576</xm:sqref>
+          <xm:sqref>D1 D4:D1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7A9927E5-BFB8-4401-AE2F-AB76BFD8B5C5}">
+          <x14:formula1>
+            <xm:f>EntryData!$M$2:$M$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>G4:G1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{4D6144BC-E255-4BC4-9898-1332F7C5D531}">
           <x14:formula1>
             <xm:f>EntryData!$F$2:$F$37</xm:f>
           </x14:formula1>
           <xm:sqref>I1:I1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7A9927E5-BFB8-4401-AE2F-AB76BFD8B5C5}">
-          <x14:formula1>
-            <xm:f>EntryData!$M$2:$M$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>G5:G1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1862,7 +1862,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78077DBB-A397-46CD-B146-C677BF2ED83E}">
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F24" workbookViewId="0">
+    <sheetView topLeftCell="F24" workbookViewId="0">
       <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
@@ -3548,45 +3548,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
-    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
-    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2021-03-04T14:13:47+00:00</Document_x0020_Creation_x0020_Date>
-    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </j747ac98061d40f0aa7bd47e1db5675d>
-    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
-    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Creator>
-    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </EPA_x0020_Contributor>
-    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009F11D2A2FBBEED40A750386529AFE883" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a7fcd2fa88e0328b3b0dd9ef335fe48c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xmlns:ns3="http://schemas.microsoft.com/sharepoint.v3" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns5="241d41d8-5778-4e30-b44e-dee891c66b79" xmlns:ns6="af43f131-d884-42a1-ba66-3c1404ec48fc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6a2a87f8101accce6a0d0ea40fd00900" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4019,21 +3994,85 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
+    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
+    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2021-03-04T14:13:47+00:00</Document_x0020_Creation_x0020_Date>
+    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </j747ac98061d40f0aa7bd47e1db5675d>
+    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
+    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Creator>
+    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </EPA_x0020_Contributor>
+    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E9A4B38-4D52-46C0-9803-4EB30CC27F1C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3227138-1B8A-4733-BA76-D224862EAA4A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14C52D3B-129A-4380-B80A-D165E0DB3A70}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="241d41d8-5778-4e30-b44e-dee891c66b79"/>
+    <ds:schemaRef ds:uri="af43f131-d884-42a1-ba66-3c1404ec48fc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F27FAEFF-543C-4C30-A571-905BD321BEF9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -4052,24 +4091,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14C52D3B-129A-4380-B80A-D165E0DB3A70}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3227138-1B8A-4733-BA76-D224862EAA4A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E9A4B38-4D52-46C0-9803-4EB30CC27F1C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>